--- a/output/3Y_P1_KFSDIV.xlsx
+++ b/output/3Y_P1_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -3627,10 +3630,10 @@
         <v>160879.9667</v>
       </c>
       <c r="K15" s="1">
-        <v>104699.6</v>
+        <v>104702.9382</v>
       </c>
       <c r="L15" s="1">
-        <v>8.9115</v>
+        <v>8.911799999999999</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -3680,10 +3683,10 @@
         <v>167723.1891</v>
       </c>
       <c r="K16" s="1">
-        <v>114617.0119</v>
+        <v>114620.3501</v>
       </c>
       <c r="L16" s="1">
-        <v>9.067399999999999</v>
+        <v>9.067600000000001</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -3733,10 +3736,10 @@
         <v>197281.374</v>
       </c>
       <c r="K17" s="1">
-        <v>127786.8831</v>
+        <v>127790.2213</v>
       </c>
       <c r="L17" s="1">
-        <v>9.225199999999999</v>
+        <v>9.2254</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -3786,10 +3789,10 @@
         <v>216893.0827</v>
       </c>
       <c r="K18" s="1">
-        <v>123848.5429</v>
+        <v>123867.626</v>
       </c>
       <c r="L18" s="1">
-        <v>9.1601</v>
+        <v>9.1615</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -3839,10 +3842,10 @@
         <v>240814.2667</v>
       </c>
       <c r="K19" s="1">
-        <v>124238.3911</v>
+        <v>124257.4741</v>
       </c>
       <c r="L19" s="1">
-        <v>9.167899999999999</v>
+        <v>9.1693</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -3892,10 +3895,10 @@
         <v>271034.2188</v>
       </c>
       <c r="K20" s="1">
-        <v>120299.9271</v>
+        <v>120334.7332</v>
       </c>
       <c r="L20" s="1">
-        <v>9.0707</v>
+        <v>9.073399999999999</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -3945,10 +3948,10 @@
         <v>281483.3545</v>
       </c>
       <c r="K21" s="1">
-        <v>116161.5892</v>
+        <v>116212.9254</v>
       </c>
       <c r="L21" s="1">
-        <v>8.948700000000001</v>
+        <v>8.9527</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -3998,10 +4001,10 @@
         <v>279335.9033</v>
       </c>
       <c r="K22" s="1">
-        <v>125750.796</v>
+        <v>125802.1322</v>
       </c>
       <c r="L22" s="1">
-        <v>9.2248</v>
+        <v>9.2286</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -4051,10 +4054,10 @@
         <v>303359.3351</v>
       </c>
       <c r="K23" s="1">
-        <v>147948.6087</v>
+        <v>147999.9449</v>
       </c>
       <c r="L23" s="1">
-        <v>9.710599999999999</v>
+        <v>9.713900000000001</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -4104,10 +4107,10 @@
         <v>292046.9979</v>
       </c>
       <c r="K24" s="1">
-        <v>156137.8065</v>
+        <v>156189.1427</v>
       </c>
       <c r="L24" s="1">
-        <v>9.8681</v>
+        <v>9.8714</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -4157,10 +4160,10 @@
         <v>296477.027</v>
       </c>
       <c r="K25" s="1">
-        <v>187542.9336</v>
+        <v>187594.2698</v>
       </c>
       <c r="L25" s="1">
-        <v>10.241</v>
+        <v>10.2438</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -4210,10 +4213,10 @@
         <v>329850.0326</v>
       </c>
       <c r="K26" s="1">
-        <v>203049.3503</v>
+        <v>203100.6865</v>
       </c>
       <c r="L26" s="1">
-        <v>10.3742</v>
+        <v>10.3768</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -4263,10 +4266,10 @@
         <v>354082.9906</v>
       </c>
       <c r="K27" s="1">
-        <v>197834.3807</v>
+        <v>197906.5517</v>
       </c>
       <c r="L27" s="1">
-        <v>10.3178</v>
+        <v>10.3215</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -4316,10 +4319,10 @@
         <v>359475.6775</v>
       </c>
       <c r="K28" s="1">
-        <v>193584.4364</v>
+        <v>193673.5937</v>
       </c>
       <c r="L28" s="1">
-        <v>10.2605</v>
+        <v>10.2652</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -4369,10 +4372,10 @@
         <v>370245.9307</v>
       </c>
       <c r="K29" s="1">
-        <v>208250.3449</v>
+        <v>208339.5022</v>
       </c>
       <c r="L29" s="1">
-        <v>10.4407</v>
+        <v>10.4451</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -4422,10 +4425,10 @@
         <v>409666.5295</v>
       </c>
       <c r="K30" s="1">
-        <v>225982.5319</v>
+        <v>226071.6892</v>
       </c>
       <c r="L30" s="1">
-        <v>10.615</v>
+        <v>10.6192</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -4475,10 +4478,10 @@
         <v>407625.8353</v>
       </c>
       <c r="K31" s="1">
-        <v>206412.8662</v>
+        <v>206580.1896</v>
       </c>
       <c r="L31" s="1">
-        <v>10.3475</v>
+        <v>10.3559</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -4528,10 +4531,10 @@
         <v>390070.3859</v>
       </c>
       <c r="K32" s="1">
-        <v>228541.982</v>
+        <v>228709.3053</v>
       </c>
       <c r="L32" s="1">
-        <v>10.6151</v>
+        <v>10.6229</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -4581,10 +4584,10 @@
         <v>403533.2754</v>
       </c>
       <c r="K33" s="1">
-        <v>275171.9551</v>
+        <v>275339.2785</v>
       </c>
       <c r="L33" s="1">
-        <v>10.8661</v>
+        <v>10.8727</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -4634,10 +4637,10 @@
         <v>413179.6654</v>
       </c>
       <c r="K34" s="1">
-        <v>281548.2653</v>
+        <v>281715.5887</v>
       </c>
       <c r="L34" s="1">
-        <v>10.8972</v>
+        <v>10.9037</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -4687,10 +4690,10 @@
         <v>448172.4778</v>
       </c>
       <c r="K35" s="1">
-        <v>291917.7943</v>
+        <v>292085.1176</v>
       </c>
       <c r="L35" s="1">
-        <v>10.945</v>
+        <v>10.9512</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -4740,10 +4743,10 @@
         <v>470068.7148</v>
       </c>
       <c r="K36" s="1">
-        <v>288496.3941</v>
+        <v>288677.4007</v>
       </c>
       <c r="L36" s="1">
-        <v>10.9251</v>
+        <v>10.932</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -4793,10 +4796,10 @@
         <v>493899.5718</v>
       </c>
       <c r="K37" s="1">
-        <v>286592.5442</v>
+        <v>286781.1637</v>
       </c>
       <c r="L37" s="1">
-        <v>10.9118</v>
+        <v>10.919</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -4846,10 +4849,10 @@
         <v>535079.5586</v>
       </c>
       <c r="K38" s="1">
-        <v>282746.3114</v>
+        <v>282950.3067</v>
       </c>
       <c r="L38" s="1">
-        <v>10.8799</v>
+        <v>10.8878</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -5667,10 +5670,10 @@
         <v>161469.5451</v>
       </c>
       <c r="K15" s="1">
-        <v>108187.5192</v>
+        <v>108189.5979</v>
       </c>
       <c r="L15" s="1">
-        <v>8.9354</v>
+        <v>8.935600000000001</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -5720,10 +5723,10 @@
         <v>168206.7345</v>
       </c>
       <c r="K16" s="1">
-        <v>118773.7299</v>
+        <v>118775.8086</v>
       </c>
       <c r="L16" s="1">
-        <v>9.0946</v>
+        <v>9.094799999999999</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -5773,10 +5776,10 @@
         <v>198448.2258</v>
       </c>
       <c r="K17" s="1">
-        <v>132773.4954</v>
+        <v>132775.5741</v>
       </c>
       <c r="L17" s="1">
-        <v>9.254200000000001</v>
+        <v>9.254300000000001</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -5826,10 +5829,10 @@
         <v>218428.9222</v>
       </c>
       <c r="K18" s="1">
-        <v>129115.0929</v>
+        <v>129131.7973</v>
       </c>
       <c r="L18" s="1">
-        <v>9.1965</v>
+        <v>9.197699999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -5879,10 +5882,10 @@
         <v>242919.334</v>
       </c>
       <c r="K19" s="1">
-        <v>129968.5162</v>
+        <v>129985.2207</v>
       </c>
       <c r="L19" s="1">
-        <v>9.212899999999999</v>
+        <v>9.2141</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -5932,10 +5935,10 @@
         <v>274005.904</v>
       </c>
       <c r="K20" s="1">
-        <v>126345.0958</v>
+        <v>126376.2656</v>
       </c>
       <c r="L20" s="1">
-        <v>9.1281</v>
+        <v>9.1303</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -5985,10 +5988,10 @@
         <v>284475.8352</v>
       </c>
       <c r="K21" s="1">
-        <v>122530.856</v>
+        <v>122577.2613</v>
       </c>
       <c r="L21" s="1">
-        <v>9.021699999999999</v>
+        <v>9.0251</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -6038,10 +6041,10 @@
         <v>281731.6662</v>
       </c>
       <c r="K22" s="1">
-        <v>133097.1602</v>
+        <v>133143.5654</v>
       </c>
       <c r="L22" s="1">
-        <v>9.3081</v>
+        <v>9.311299999999999</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -6091,10 +6094,10 @@
         <v>306444.2924</v>
       </c>
       <c r="K23" s="1">
-        <v>156943.3264</v>
+        <v>156989.7317</v>
       </c>
       <c r="L23" s="1">
-        <v>9.795299999999999</v>
+        <v>9.7982</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -6144,10 +6147,10 @@
         <v>293972.5867</v>
       </c>
       <c r="K24" s="1">
-        <v>166145.6117</v>
+        <v>166192.0169</v>
       </c>
       <c r="L24" s="1">
-        <v>9.959899999999999</v>
+        <v>9.9627</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -6197,10 +6200,10 @@
         <v>298083.1334</v>
       </c>
       <c r="K25" s="1">
-        <v>199875.0694</v>
+        <v>199921.4747</v>
       </c>
       <c r="L25" s="1">
-        <v>10.3261</v>
+        <v>10.3285</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -6250,10 +6253,10 @@
         <v>332826.0864</v>
       </c>
       <c r="K26" s="1">
-        <v>216913.3203</v>
+        <v>216959.7256</v>
       </c>
       <c r="L26" s="1">
-        <v>10.4585</v>
+        <v>10.4608</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -6303,10 +6306,10 @@
         <v>357946.6771</v>
       </c>
       <c r="K27" s="1">
-        <v>212064.8577</v>
+        <v>212130.6335</v>
       </c>
       <c r="L27" s="1">
-        <v>10.4107</v>
+        <v>10.4139</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -6356,10 +6359,10 @@
         <v>363039.5501</v>
       </c>
       <c r="K28" s="1">
-        <v>208257.0033</v>
+        <v>208337.9985</v>
       </c>
       <c r="L28" s="1">
-        <v>10.3638</v>
+        <v>10.3678</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -6409,10 +6412,10 @@
         <v>373836.1591</v>
       </c>
       <c r="K29" s="1">
-        <v>224614.0781</v>
+        <v>224695.0733</v>
       </c>
       <c r="L29" s="1">
-        <v>10.5461</v>
+        <v>10.5499</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -6462,10 +6465,10 @@
         <v>415328.5866</v>
       </c>
       <c r="K30" s="1">
-        <v>244315.0255</v>
+        <v>244396.0207</v>
       </c>
       <c r="L30" s="1">
-        <v>10.7202</v>
+        <v>10.7238</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -6515,10 +6518,10 @@
         <v>412405.8515</v>
       </c>
       <c r="K31" s="1">
-        <v>224162.0556</v>
+        <v>224323.5466</v>
       </c>
       <c r="L31" s="1">
-        <v>10.4702</v>
+        <v>10.4778</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -6568,10 +6571,10 @@
         <v>392728.4651</v>
       </c>
       <c r="K32" s="1">
-        <v>248739.2136</v>
+        <v>248900.7047</v>
       </c>
       <c r="L32" s="1">
-        <v>10.7372</v>
+        <v>10.7441</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -6621,10 +6624,10 @@
         <v>406461.1635</v>
       </c>
       <c r="K33" s="1">
-        <v>299770.5112</v>
+        <v>299932.0022</v>
       </c>
       <c r="L33" s="1">
-        <v>10.9733</v>
+        <v>10.9792</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -6674,10 +6677,10 @@
         <v>416075.2486</v>
       </c>
       <c r="K34" s="1">
-        <v>307537.0565</v>
+        <v>307698.5476</v>
       </c>
       <c r="L34" s="1">
-        <v>11.0059</v>
+        <v>11.0117</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -6727,10 +6730,10 @@
         <v>453138.9788</v>
       </c>
       <c r="K35" s="1">
-        <v>319670.8095</v>
+        <v>319832.3005</v>
       </c>
       <c r="L35" s="1">
-        <v>11.0538</v>
+        <v>11.0594</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -6780,10 +6783,10 @@
         <v>476071.0895</v>
       </c>
       <c r="K36" s="1">
-        <v>316910.9625</v>
+        <v>317083.4911</v>
       </c>
       <c r="L36" s="1">
-        <v>11.0398</v>
+        <v>11.0458</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -6833,10 +6836,10 @@
         <v>501144.8972</v>
       </c>
       <c r="K37" s="1">
-        <v>315822.5283</v>
+        <v>315999.4092</v>
       </c>
       <c r="L37" s="1">
-        <v>11.0332</v>
+        <v>11.0394</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -6886,10 +6889,10 @@
         <v>545181.2078</v>
       </c>
       <c r="K38" s="1">
-        <v>312643.2801</v>
+        <v>312832.8704</v>
       </c>
       <c r="L38" s="1">
-        <v>11.01</v>
+        <v>11.0167</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -7707,10 +7710,10 @@
         <v>162075.2868</v>
       </c>
       <c r="K15" s="1">
-        <v>111810.5225</v>
+        <v>111811.2437</v>
       </c>
       <c r="L15" s="1">
-        <v>8.959</v>
+        <v>8.959099999999999</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -7760,7 +7763,7 @@
         <v>168702.055</v>
       </c>
       <c r="K16" s="1">
-        <v>123106.7659</v>
+        <v>123107.4871</v>
       </c>
       <c r="L16" s="1">
         <v>9.121700000000001</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -7813,7 +7816,7 @@
         <v>199656.4397</v>
       </c>
       <c r="K17" s="1">
-        <v>137989.1797</v>
+        <v>137989.9009</v>
       </c>
       <c r="L17" s="1">
         <v>9.2829</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -7866,10 +7869,10 @@
         <v>220023.7876</v>
       </c>
       <c r="K18" s="1">
-        <v>134644.7948</v>
+        <v>134658.8863</v>
       </c>
       <c r="L18" s="1">
-        <v>9.232699999999999</v>
+        <v>9.233700000000001</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -7919,10 +7922,10 @@
         <v>245112.5928</v>
       </c>
       <c r="K19" s="1">
-        <v>136008.6802</v>
+        <v>136022.7717</v>
       </c>
       <c r="L19" s="1">
-        <v>9.2575</v>
+        <v>9.2585</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -7972,10 +7975,10 @@
         <v>277112.5073</v>
       </c>
       <c r="K20" s="1">
-        <v>132744.441</v>
+        <v>132771.564</v>
       </c>
       <c r="L20" s="1">
-        <v>9.1851</v>
+        <v>9.186999999999999</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -8025,10 +8028,10 @@
         <v>287604.4503</v>
       </c>
       <c r="K21" s="1">
-        <v>129303.5217</v>
+        <v>129344.389</v>
       </c>
       <c r="L21" s="1">
-        <v>9.0944</v>
+        <v>9.097200000000001</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -8078,10 +8081,10 @@
         <v>284226.3993</v>
       </c>
       <c r="K22" s="1">
-        <v>140939.1935</v>
+        <v>140980.0608</v>
       </c>
       <c r="L22" s="1">
-        <v>9.391</v>
+        <v>9.393700000000001</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -8131,10 +8134,10 @@
         <v>309671.1832</v>
       </c>
       <c r="K23" s="1">
-        <v>166575.0623</v>
+        <v>166615.9296</v>
       </c>
       <c r="L23" s="1">
-        <v>9.8797</v>
+        <v>9.882099999999999</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -8184,10 +8187,10 @@
         <v>295959.6553</v>
       </c>
       <c r="K24" s="1">
-        <v>176900.1439</v>
+        <v>176941.0111</v>
       </c>
       <c r="L24" s="1">
-        <v>10.0511</v>
+        <v>10.0535</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -8237,10 +8240,10 @@
         <v>299727.2809</v>
       </c>
       <c r="K25" s="1">
-        <v>213162.4965</v>
+        <v>213203.3638</v>
       </c>
       <c r="L25" s="1">
-        <v>10.4105</v>
+        <v>10.4125</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -8290,10 +8293,10 @@
         <v>335943.0998</v>
       </c>
       <c r="K26" s="1">
-        <v>231896.4314</v>
+        <v>231937.2987</v>
       </c>
       <c r="L26" s="1">
-        <v>10.542</v>
+        <v>10.5438</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -8343,10 +8346,10 @@
         <v>362022.4707</v>
       </c>
       <c r="K27" s="1">
-        <v>227499.6092</v>
+        <v>227558.0427</v>
       </c>
       <c r="L27" s="1">
-        <v>10.5025</v>
+        <v>10.5052</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -8396,10 +8399,10 @@
         <v>366790.4004</v>
       </c>
       <c r="K28" s="1">
-        <v>224231.4961</v>
+        <v>224302.9917</v>
       </c>
       <c r="L28" s="1">
-        <v>10.4657</v>
+        <v>10.469</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -8449,10 +8452,10 @@
         <v>377613.3941</v>
       </c>
       <c r="K29" s="1">
-        <v>242489.0751</v>
+        <v>242560.5706</v>
       </c>
       <c r="L29" s="1">
-        <v>10.6501</v>
+        <v>10.6532</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -8502,10 +8505,10 @@
         <v>421366.3123</v>
       </c>
       <c r="K30" s="1">
-        <v>264404.2582</v>
+        <v>264475.7538</v>
       </c>
       <c r="L30" s="1">
-        <v>10.8237</v>
+        <v>10.8266</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -8555,10 +8558,10 @@
         <v>417477.8334</v>
       </c>
       <c r="K31" s="1">
-        <v>243693.9013</v>
+        <v>243848.119</v>
       </c>
       <c r="L31" s="1">
-        <v>10.5911</v>
+        <v>10.5978</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -8608,10 +8611,10 @@
         <v>395466.4883</v>
       </c>
       <c r="K32" s="1">
-        <v>271036.6728</v>
+        <v>271190.8905</v>
       </c>
       <c r="L32" s="1">
-        <v>10.8572</v>
+        <v>10.8633</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -8661,10 +8664,10 @@
         <v>409496.3133</v>
       </c>
       <c r="K33" s="1">
-        <v>326995.0381</v>
+        <v>327149.2559</v>
       </c>
       <c r="L33" s="1">
-        <v>11.0783</v>
+        <v>11.0835</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -8714,10 +8717,10 @@
         <v>419074.2929</v>
       </c>
       <c r="K34" s="1">
-        <v>336392.495</v>
+        <v>336546.7128</v>
       </c>
       <c r="L34" s="1">
-        <v>11.1121</v>
+        <v>11.1172</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -8767,10 +8770,10 @@
         <v>458432.5435</v>
       </c>
       <c r="K35" s="1">
-        <v>350583.023</v>
+        <v>350737.2407</v>
       </c>
       <c r="L35" s="1">
-        <v>11.1598</v>
+        <v>11.1647</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -8820,10 +8823,10 @@
         <v>482518.2825</v>
       </c>
       <c r="K36" s="1">
-        <v>348670.0105</v>
+        <v>348831.8791</v>
       </c>
       <c r="L36" s="1">
-        <v>11.1514</v>
+        <v>11.1566</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -8873,10 +8876,10 @@
         <v>508981.0629</v>
       </c>
       <c r="K37" s="1">
-        <v>348609.8006</v>
+        <v>348771.9099</v>
       </c>
       <c r="L37" s="1">
-        <v>11.1511</v>
+        <v>11.1563</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -8926,10 +8929,10 @@
         <v>556216.1115999999</v>
       </c>
       <c r="K38" s="1">
-        <v>346303.8294</v>
+        <v>346475.1571</v>
       </c>
       <c r="L38" s="1">
-        <v>11.1364</v>
+        <v>11.1419</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -9906,10 +9909,10 @@
         <v>221679.4444</v>
       </c>
       <c r="K18" s="1">
-        <v>140451.1078</v>
+        <v>140463.0756</v>
       </c>
       <c r="L18" s="1">
-        <v>9.268599999999999</v>
+        <v>9.269399999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -9959,10 +9962,10 @@
         <v>247397.3741</v>
       </c>
       <c r="K19" s="1">
-        <v>142376.1063</v>
+        <v>142388.0741</v>
       </c>
       <c r="L19" s="1">
-        <v>9.3018</v>
+        <v>9.3026</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -10012,10 +10015,10 @@
         <v>280360.011</v>
       </c>
       <c r="K20" s="1">
-        <v>139519.2872</v>
+        <v>139542.66</v>
       </c>
       <c r="L20" s="1">
-        <v>9.2418</v>
+        <v>9.2433</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -10065,10 +10068,10 @@
         <v>290875.2575</v>
       </c>
       <c r="K21" s="1">
-        <v>136505.8219</v>
+        <v>136541.2315</v>
       </c>
       <c r="L21" s="1">
-        <v>9.166700000000001</v>
+        <v>9.1691</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -10118,10 +10121,10 @@
         <v>286823.7048</v>
       </c>
       <c r="K22" s="1">
-        <v>149311.2855</v>
+        <v>149346.6952</v>
       </c>
       <c r="L22" s="1">
-        <v>9.473599999999999</v>
+        <v>9.4758</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -10171,10 +10174,10 @@
         <v>313046.4519</v>
       </c>
       <c r="K23" s="1">
-        <v>176890.3936</v>
+        <v>176925.8032</v>
       </c>
       <c r="L23" s="1">
-        <v>9.9636</v>
+        <v>9.9655</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -10224,10 +10227,10 @@
         <v>298008.6894</v>
       </c>
       <c r="K24" s="1">
-        <v>188459.0095</v>
+        <v>188494.4191</v>
       </c>
       <c r="L24" s="1">
-        <v>10.1418</v>
+        <v>10.1437</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -10277,10 +10280,10 @@
         <v>301408.1148</v>
       </c>
       <c r="K25" s="1">
-        <v>227482.1392</v>
+        <v>227517.5489</v>
       </c>
       <c r="L25" s="1">
-        <v>10.4941</v>
+        <v>10.4958</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -10330,10 +10333,10 @@
         <v>339208.0105</v>
       </c>
       <c r="K26" s="1">
-        <v>248092.8815</v>
+        <v>248128.2911</v>
       </c>
       <c r="L26" s="1">
-        <v>10.6244</v>
+        <v>10.6259</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -10383,10 +10386,10 @@
         <v>366323.4406</v>
       </c>
       <c r="K27" s="1">
-        <v>244244.9708</v>
+        <v>244295.7536</v>
       </c>
       <c r="L27" s="1">
-        <v>10.593</v>
+        <v>10.5952</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -10436,10 +10439,10 @@
         <v>370739.0282</v>
       </c>
       <c r="K28" s="1">
-        <v>241628.5368</v>
+        <v>241689.7771</v>
       </c>
       <c r="L28" s="1">
-        <v>10.5661</v>
+        <v>10.5688</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -10489,10 +10492,10 @@
         <v>381588.2232</v>
       </c>
       <c r="K29" s="1">
-        <v>262021.5217</v>
+        <v>262082.7619</v>
       </c>
       <c r="L29" s="1">
-        <v>10.7524</v>
+        <v>10.7549</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -10542,10 +10545,10 @@
         <v>427808.8719</v>
       </c>
       <c r="K30" s="1">
-        <v>286427.1216</v>
+        <v>286488.3618</v>
       </c>
       <c r="L30" s="1">
-        <v>10.9253</v>
+        <v>10.9276</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -10595,10 +10598,10 @@
         <v>422862.3427</v>
       </c>
       <c r="K31" s="1">
-        <v>265196.3096</v>
+        <v>265342.3509</v>
       </c>
       <c r="L31" s="1">
-        <v>10.7097</v>
+        <v>10.7156</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -10648,10 +10651,10 @@
         <v>398282.0394</v>
       </c>
       <c r="K32" s="1">
-        <v>295664.3856</v>
+        <v>295810.4269</v>
       </c>
       <c r="L32" s="1">
-        <v>10.9749</v>
+        <v>10.9803</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -10701,10 +10704,10 @@
         <v>412639.3129</v>
       </c>
       <c r="K33" s="1">
-        <v>357142.3901</v>
+        <v>357288.4314</v>
       </c>
       <c r="L33" s="1">
-        <v>11.1809</v>
+        <v>11.1855</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -10754,10 +10757,10 @@
         <v>422176.9049</v>
       </c>
       <c r="K34" s="1">
-        <v>368449.9722</v>
+        <v>368596.0135</v>
       </c>
       <c r="L34" s="1">
-        <v>11.2156</v>
+        <v>11.22</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -10807,10 +10810,10 @@
         <v>464079.5672</v>
       </c>
       <c r="K35" s="1">
-        <v>385036.6572</v>
+        <v>385182.6985</v>
       </c>
       <c r="L35" s="1">
-        <v>11.2627</v>
+        <v>11.267</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -10860,10 +10863,10 @@
         <v>489451.2869</v>
       </c>
       <c r="K36" s="1">
-        <v>384192.381</v>
+        <v>384341.7988</v>
       </c>
       <c r="L36" s="1">
-        <v>11.2596</v>
+        <v>11.2639</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -10913,10 +10916,10 @@
         <v>517462.9002</v>
       </c>
       <c r="K37" s="1">
-        <v>385415.5159</v>
+        <v>385564.9337</v>
       </c>
       <c r="L37" s="1">
-        <v>11.2652</v>
+        <v>11.2696</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -10966,10 +10969,10 @@
         <v>568283.9584999999</v>
       </c>
       <c r="K38" s="1">
-        <v>384233.098</v>
+        <v>384387.2427</v>
       </c>
       <c r="L38" s="1">
-        <v>11.2586</v>
+        <v>11.2631</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>11.6283</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8799</v>
+        <v>10.8878</v>
       </c>
       <c r="E3" s="1">
-        <v>11.01</v>
+        <v>11.0167</v>
       </c>
       <c r="F3" s="1">
-        <v>11.1364</v>
+        <v>11.1419</v>
       </c>
       <c r="G3" s="1">
-        <v>11.2586</v>
+        <v>11.2631</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>94486.2482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2925</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.8911</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.7427</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.6054</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4784</v>
       </c>
     </row>
   </sheetData>
